--- a/data/pca/factorExposure/factorExposure_2015-06-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01998216785251001</v>
+        <v>0.009663672267943976</v>
       </c>
       <c r="C2">
-        <v>-0.01789978429903384</v>
+        <v>0.04958240306625809</v>
       </c>
       <c r="D2">
-        <v>0.1072244971620937</v>
+        <v>-0.1311770430236598</v>
       </c>
       <c r="E2">
-        <v>0.008339724443207056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.01920925891633896</v>
+      </c>
+      <c r="F2">
+        <v>-0.03167438289676097</v>
+      </c>
+      <c r="G2">
+        <v>-0.1288533857569568</v>
+      </c>
+      <c r="H2">
+        <v>0.04289656987198456</v>
+      </c>
+      <c r="I2">
+        <v>-0.127006896033649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.001198704304668781</v>
+        <v>-0.000278585985224612</v>
       </c>
       <c r="C3">
-        <v>-0.004186369307616402</v>
+        <v>0.00330179752128755</v>
       </c>
       <c r="D3">
-        <v>0.0006996479613308821</v>
+        <v>-0.001060920244437885</v>
       </c>
       <c r="E3">
-        <v>-0.004096796699556414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.002709856823370908</v>
+      </c>
+      <c r="F3">
+        <v>0.005558714619556566</v>
+      </c>
+      <c r="G3">
+        <v>-0.0008453729730379145</v>
+      </c>
+      <c r="H3">
+        <v>-0.008266257196119181</v>
+      </c>
+      <c r="I3">
+        <v>-0.0008307157667922978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04552062750379603</v>
+        <v>0.02005800033199609</v>
       </c>
       <c r="C4">
-        <v>-0.07074629190053611</v>
+        <v>0.1035736759133326</v>
       </c>
       <c r="D4">
-        <v>0.1339041504854358</v>
+        <v>-0.1359622947551195</v>
       </c>
       <c r="E4">
-        <v>0.08044927137085715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.00621517003098154</v>
+      </c>
+      <c r="F4">
+        <v>-0.09256989688385998</v>
+      </c>
+      <c r="G4">
+        <v>-0.009386902594965838</v>
+      </c>
+      <c r="H4">
+        <v>0.05272068842142839</v>
+      </c>
+      <c r="I4">
+        <v>0.06624190846440524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02289731250178269</v>
+        <v>0.02742416197766497</v>
       </c>
       <c r="C6">
-        <v>-0.01276683403026327</v>
+        <v>0.0337416236663917</v>
       </c>
       <c r="D6">
-        <v>0.1390217266604508</v>
+        <v>-0.1240298888390455</v>
       </c>
       <c r="E6">
-        <v>0.03388566644204306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.0562474394519771</v>
+      </c>
+      <c r="F6">
+        <v>-0.04609487352721398</v>
+      </c>
+      <c r="G6">
+        <v>-0.006065694502540629</v>
+      </c>
+      <c r="H6">
+        <v>0.05311549868939536</v>
+      </c>
+      <c r="I6">
+        <v>0.02939831350932457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.003762429388291326</v>
+        <v>0.008753938117693164</v>
       </c>
       <c r="C7">
-        <v>-0.0223976808237636</v>
+        <v>0.03342158600736869</v>
       </c>
       <c r="D7">
-        <v>0.1114266208936662</v>
+        <v>-0.09749484780243407</v>
       </c>
       <c r="E7">
-        <v>0.001407757776350944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05198963125134735</v>
+      </c>
+      <c r="F7">
+        <v>-0.009424897814321291</v>
+      </c>
+      <c r="G7">
+        <v>-0.005693761073888617</v>
+      </c>
+      <c r="H7">
+        <v>0.0766084249135412</v>
+      </c>
+      <c r="I7">
+        <v>-0.0003909321431820623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004444171317282359</v>
+        <v>-0.008601904607968789</v>
       </c>
       <c r="C8">
-        <v>-0.02511170647488956</v>
+        <v>0.0323714949957264</v>
       </c>
       <c r="D8">
-        <v>0.08098662246553687</v>
+        <v>-0.07819076104208733</v>
       </c>
       <c r="E8">
-        <v>0.02451665609413532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03635467888151506</v>
+      </c>
+      <c r="F8">
+        <v>-0.05336888920828856</v>
+      </c>
+      <c r="G8">
+        <v>-0.06133396727640317</v>
+      </c>
+      <c r="H8">
+        <v>0.000950995287035035</v>
+      </c>
+      <c r="I8">
+        <v>0.003702490914868513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03824487450948781</v>
+        <v>0.01376369423977409</v>
       </c>
       <c r="C9">
-        <v>-0.06035640722329527</v>
+        <v>0.08588570541535288</v>
       </c>
       <c r="D9">
-        <v>0.1334968291257307</v>
+        <v>-0.1165846370286869</v>
       </c>
       <c r="E9">
-        <v>0.06417558488734192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.009107417218346726</v>
+      </c>
+      <c r="F9">
+        <v>-0.0608290108135286</v>
+      </c>
+      <c r="G9">
+        <v>0.006300925255186558</v>
+      </c>
+      <c r="H9">
+        <v>0.06775327369931354</v>
+      </c>
+      <c r="I9">
+        <v>0.03553719744504604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1644007754677317</v>
+        <v>0.237381214888039</v>
       </c>
       <c r="C10">
-        <v>0.1760648243674396</v>
+        <v>-0.09588329778365068</v>
       </c>
       <c r="D10">
-        <v>0.009606672467945511</v>
+        <v>0.002351454967107412</v>
       </c>
       <c r="E10">
-        <v>0.0461336492398403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01337764726494161</v>
+      </c>
+      <c r="F10">
+        <v>-0.04650701288362056</v>
+      </c>
+      <c r="G10">
+        <v>-0.001305436730656119</v>
+      </c>
+      <c r="H10">
+        <v>-0.05140204892663424</v>
+      </c>
+      <c r="I10">
+        <v>-0.01137832597749015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02016630579015406</v>
+        <v>0.01020505732825054</v>
       </c>
       <c r="C11">
-        <v>-0.03956343198929894</v>
+        <v>0.05272900766309745</v>
       </c>
       <c r="D11">
-        <v>0.04962836306335061</v>
+        <v>-0.04363795842951063</v>
       </c>
       <c r="E11">
-        <v>-0.01631754439694886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01974505248879452</v>
+      </c>
+      <c r="F11">
+        <v>0.0119917502053397</v>
+      </c>
+      <c r="G11">
+        <v>-0.001763595461702749</v>
+      </c>
+      <c r="H11">
+        <v>0.04606196401805151</v>
+      </c>
+      <c r="I11">
+        <v>0.05855271671426047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02126748935629061</v>
+        <v>0.01053226696847371</v>
       </c>
       <c r="C12">
-        <v>-0.03953385947383813</v>
+        <v>0.04882272784115671</v>
       </c>
       <c r="D12">
-        <v>0.06265261420995009</v>
+        <v>-0.04886495903274707</v>
       </c>
       <c r="E12">
-        <v>-0.006527806720869855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01525853318903484</v>
+      </c>
+      <c r="F12">
+        <v>0.01573727663133292</v>
+      </c>
+      <c r="G12">
+        <v>0.01346591052167681</v>
+      </c>
+      <c r="H12">
+        <v>0.07270986422515405</v>
+      </c>
+      <c r="I12">
+        <v>0.02554590914821363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.003665670749066559</v>
+        <v>-0.003492974673693565</v>
       </c>
       <c r="C13">
-        <v>-0.02390521275733357</v>
+        <v>0.04448914011663709</v>
       </c>
       <c r="D13">
-        <v>0.1480614585404429</v>
+        <v>-0.1494440341457826</v>
       </c>
       <c r="E13">
-        <v>0.0319743430920609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03701216173527676</v>
+      </c>
+      <c r="F13">
+        <v>-0.0321622816761793</v>
+      </c>
+      <c r="G13">
+        <v>-0.02932376808669853</v>
+      </c>
+      <c r="H13">
+        <v>0.06056758542046416</v>
+      </c>
+      <c r="I13">
+        <v>-0.0884767293811881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004679494130690176</v>
+        <v>0.0007312872947918186</v>
       </c>
       <c r="C14">
-        <v>-0.01773055287738086</v>
+        <v>0.02786761359409185</v>
       </c>
       <c r="D14">
-        <v>0.100130598213178</v>
+        <v>-0.1016869621879424</v>
       </c>
       <c r="E14">
-        <v>0.008527263968730306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.04836706997168358</v>
+      </c>
+      <c r="F14">
+        <v>-0.03403584648039543</v>
+      </c>
+      <c r="G14">
+        <v>-0.03439332289442152</v>
+      </c>
+      <c r="H14">
+        <v>0.123402486330842</v>
+      </c>
+      <c r="I14">
+        <v>-0.003388231938271294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001739909079091682</v>
+        <v>-0.0009668193333180119</v>
       </c>
       <c r="C15">
-        <v>-0.009921795750423176</v>
+        <v>0.02239624023107312</v>
       </c>
       <c r="D15">
-        <v>0.02827868276340869</v>
+        <v>-0.0579005313218635</v>
       </c>
       <c r="E15">
-        <v>-0.003537455819299854</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.009686328390852435</v>
+      </c>
+      <c r="F15">
+        <v>-0.005819200370204747</v>
+      </c>
+      <c r="G15">
+        <v>-0.02285564812247203</v>
+      </c>
+      <c r="H15">
+        <v>0.02758838748744835</v>
+      </c>
+      <c r="I15">
+        <v>0.0173494695094535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02043051990539529</v>
+        <v>0.01042594468714578</v>
       </c>
       <c r="C16">
-        <v>-0.03732411753005389</v>
+        <v>0.04864758132134502</v>
       </c>
       <c r="D16">
-        <v>0.05571224117144216</v>
+        <v>-0.0445924555378165</v>
       </c>
       <c r="E16">
-        <v>-0.009304403184814963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02148444250452156</v>
+      </c>
+      <c r="F16">
+        <v>0.008951021614268717</v>
+      </c>
+      <c r="G16">
+        <v>0.01002667697692134</v>
+      </c>
+      <c r="H16">
+        <v>0.05259310100550754</v>
+      </c>
+      <c r="I16">
+        <v>0.04894638601635918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.005509495245201552</v>
+        <v>0.0003378055748834091</v>
       </c>
       <c r="C19">
-        <v>-0.01969880636797689</v>
+        <v>0.01869582507329305</v>
       </c>
       <c r="D19">
-        <v>0.1055413206029703</v>
+        <v>-0.0653821051145918</v>
       </c>
       <c r="E19">
-        <v>0.04042271364436117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01242765761216409</v>
+      </c>
+      <c r="F19">
+        <v>-0.01417620992700599</v>
+      </c>
+      <c r="G19">
+        <v>-0.02105938972941728</v>
+      </c>
+      <c r="H19">
+        <v>0.06020410652643862</v>
+      </c>
+      <c r="I19">
+        <v>-0.03348978821546569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003471901149858658</v>
+        <v>0.005680985824817355</v>
       </c>
       <c r="C20">
-        <v>-0.02401272529628602</v>
+        <v>0.03822036568344358</v>
       </c>
       <c r="D20">
-        <v>0.08884528439238037</v>
+        <v>-0.09436786949668775</v>
       </c>
       <c r="E20">
-        <v>0.03351248975444353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02128152789911465</v>
+      </c>
+      <c r="F20">
+        <v>-0.02928938384009309</v>
+      </c>
+      <c r="G20">
+        <v>-0.003621893785990361</v>
+      </c>
+      <c r="H20">
+        <v>0.05783154682079525</v>
+      </c>
+      <c r="I20">
+        <v>0.04715921423205988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00663209161980895</v>
+        <v>0.00449640432630719</v>
       </c>
       <c r="C21">
-        <v>-0.02968351320310745</v>
+        <v>0.0415079828790452</v>
       </c>
       <c r="D21">
-        <v>0.1669225235428484</v>
+        <v>-0.1295988870661625</v>
       </c>
       <c r="E21">
-        <v>0.06833949563924223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0293818790366856</v>
+      </c>
+      <c r="F21">
+        <v>-0.09204509790231569</v>
+      </c>
+      <c r="G21">
+        <v>-0.04815952076721434</v>
+      </c>
+      <c r="H21">
+        <v>0.1875342255014276</v>
+      </c>
+      <c r="I21">
+        <v>-0.1419736553058093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0002117307092563309</v>
+        <v>-0.008240492772196802</v>
       </c>
       <c r="C22">
-        <v>-0.06182628221260175</v>
+        <v>0.08504889846115718</v>
       </c>
       <c r="D22">
-        <v>0.2385861496892449</v>
+        <v>-0.2659845821470413</v>
       </c>
       <c r="E22">
-        <v>-0.02234854694260327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04874066472447987</v>
+      </c>
+      <c r="F22">
+        <v>-0.03074354024847064</v>
+      </c>
+      <c r="G22">
+        <v>-0.287228778111711</v>
+      </c>
+      <c r="H22">
+        <v>-0.4431018636504984</v>
+      </c>
+      <c r="I22">
+        <v>0.09158902450518078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004687646514908683</v>
+        <v>-0.00788510913603856</v>
       </c>
       <c r="C23">
-        <v>-0.06231813961916453</v>
+        <v>0.08607757262323976</v>
       </c>
       <c r="D23">
-        <v>0.2381684588365947</v>
+        <v>-0.2666992728179334</v>
       </c>
       <c r="E23">
-        <v>-0.02219823942890336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04560730129487849</v>
+      </c>
+      <c r="F23">
+        <v>-0.03082473690265309</v>
+      </c>
+      <c r="G23">
+        <v>-0.2870790781946099</v>
+      </c>
+      <c r="H23">
+        <v>-0.4427401172015788</v>
+      </c>
+      <c r="I23">
+        <v>0.09090281432012545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02642614072819924</v>
+        <v>0.009954587970107379</v>
       </c>
       <c r="C24">
-        <v>-0.05585937366317151</v>
+        <v>0.06516883512775432</v>
       </c>
       <c r="D24">
-        <v>0.06879938808354463</v>
+        <v>-0.05131982320970727</v>
       </c>
       <c r="E24">
-        <v>-0.005210197007070951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02916687994850037</v>
+      </c>
+      <c r="F24">
+        <v>0.004981670901074123</v>
+      </c>
+      <c r="G24">
+        <v>-0.002204216142251396</v>
+      </c>
+      <c r="H24">
+        <v>0.07582600381197757</v>
+      </c>
+      <c r="I24">
+        <v>0.04349944720920551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02751451596760955</v>
+        <v>0.01415927991657927</v>
       </c>
       <c r="C25">
-        <v>-0.04735853738693029</v>
+        <v>0.05985848017328846</v>
       </c>
       <c r="D25">
-        <v>0.06072999821367715</v>
+        <v>-0.04945873805666918</v>
       </c>
       <c r="E25">
-        <v>-0.001216695833057158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01396854025744253</v>
+      </c>
+      <c r="F25">
+        <v>0.006198401665731825</v>
+      </c>
+      <c r="G25">
+        <v>0.005822609891921003</v>
+      </c>
+      <c r="H25">
+        <v>0.04259016436485798</v>
+      </c>
+      <c r="I25">
+        <v>0.03736756137551434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008325490298435052</v>
+        <v>0.01396741174629379</v>
       </c>
       <c r="C26">
-        <v>-0.01457334037119812</v>
+        <v>0.02344213088425953</v>
       </c>
       <c r="D26">
-        <v>0.08062644773676247</v>
+        <v>-0.06403884054687148</v>
       </c>
       <c r="E26">
-        <v>0.01841717681214027</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04120325008448075</v>
+      </c>
+      <c r="F26">
+        <v>-0.04276576866812845</v>
+      </c>
+      <c r="G26">
+        <v>-0.0211635724906906</v>
+      </c>
+      <c r="H26">
+        <v>0.09126082351350141</v>
+      </c>
+      <c r="I26">
+        <v>-0.02376840184032464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2484718487714227</v>
+        <v>0.3184254637873905</v>
       </c>
       <c r="C28">
-        <v>0.2116188054680948</v>
+        <v>-0.09697446757959044</v>
       </c>
       <c r="D28">
-        <v>0.01830359724532698</v>
+        <v>0.01228154103861951</v>
       </c>
       <c r="E28">
-        <v>0.06449474325063724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05259601826759405</v>
+      </c>
+      <c r="F28">
+        <v>-0.04841378391302257</v>
+      </c>
+      <c r="G28">
+        <v>-0.03897643483988483</v>
+      </c>
+      <c r="H28">
+        <v>-0.01439629667435758</v>
+      </c>
+      <c r="I28">
+        <v>-0.04287051282112297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001075683800144239</v>
+        <v>-0.0002027277592478064</v>
       </c>
       <c r="C29">
-        <v>-0.02125121334787668</v>
+        <v>0.03155778204321723</v>
       </c>
       <c r="D29">
-        <v>0.09766223406758702</v>
+        <v>-0.09979222407286599</v>
       </c>
       <c r="E29">
-        <v>0.01347962764377899</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05498952539774654</v>
+      </c>
+      <c r="F29">
+        <v>-0.0367498376295321</v>
+      </c>
+      <c r="G29">
+        <v>-0.02111497274251062</v>
+      </c>
+      <c r="H29">
+        <v>0.1279283982073479</v>
+      </c>
+      <c r="I29">
+        <v>0.01087806525088521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02383887711098957</v>
+        <v>0.01460693601481782</v>
       </c>
       <c r="C30">
-        <v>-0.05722387940139275</v>
+        <v>0.08438052372573233</v>
       </c>
       <c r="D30">
-        <v>0.166603476103381</v>
+        <v>-0.1548187328949664</v>
       </c>
       <c r="E30">
-        <v>0.02185294583381392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05198825878041301</v>
+      </c>
+      <c r="F30">
+        <v>-0.0369014994617714</v>
+      </c>
+      <c r="G30">
+        <v>-0.03587011023827353</v>
+      </c>
+      <c r="H30">
+        <v>0.05333330061089395</v>
+      </c>
+      <c r="I30">
+        <v>0.05678870149721425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04151331289725443</v>
+        <v>0.009922830065112716</v>
       </c>
       <c r="C31">
-        <v>-0.0837456712243157</v>
+        <v>0.09226039909333533</v>
       </c>
       <c r="D31">
-        <v>0.06937073811356258</v>
+        <v>-0.04006461260853742</v>
       </c>
       <c r="E31">
-        <v>0.01198990850611391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01884647914891417</v>
+      </c>
+      <c r="F31">
+        <v>-0.01612767797596617</v>
+      </c>
+      <c r="G31">
+        <v>-0.0125083040653563</v>
+      </c>
+      <c r="H31">
+        <v>0.04457903955231782</v>
+      </c>
+      <c r="I31">
+        <v>-0.01250903404418392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01921935793265283</v>
+        <v>0.009584913314561435</v>
       </c>
       <c r="C32">
-        <v>-0.03191315589291192</v>
+        <v>0.04535455677901264</v>
       </c>
       <c r="D32">
-        <v>0.1030426407555119</v>
+        <v>-0.10713271012162</v>
       </c>
       <c r="E32">
-        <v>0.06653791595417649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0008228746615772932</v>
+      </c>
+      <c r="F32">
+        <v>-0.0534988631196958</v>
+      </c>
+      <c r="G32">
+        <v>-0.02755593355281384</v>
+      </c>
+      <c r="H32">
+        <v>0.04016067690976115</v>
+      </c>
+      <c r="I32">
+        <v>-0.07101984987089352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01205400022127009</v>
+        <v>0.006580946468684344</v>
       </c>
       <c r="C33">
-        <v>-0.0407002246058065</v>
+        <v>0.05713926873308833</v>
       </c>
       <c r="D33">
-        <v>0.1386986030325201</v>
+        <v>-0.1212292772112752</v>
       </c>
       <c r="E33">
-        <v>0.03700370088783374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02538484745953081</v>
+      </c>
+      <c r="F33">
+        <v>-0.02797190976211987</v>
+      </c>
+      <c r="G33">
+        <v>-0.01176213307326069</v>
+      </c>
+      <c r="H33">
+        <v>0.06389461620284649</v>
+      </c>
+      <c r="I33">
+        <v>0.008402314532251267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02371396170458411</v>
+        <v>0.007669118709451427</v>
       </c>
       <c r="C34">
-        <v>-0.05843297731476919</v>
+        <v>0.06223579044442315</v>
       </c>
       <c r="D34">
-        <v>0.05119311336388922</v>
+        <v>-0.03136904692661105</v>
       </c>
       <c r="E34">
-        <v>-0.04735891292447875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02952705224128569</v>
+      </c>
+      <c r="F34">
+        <v>0.03779876339653657</v>
+      </c>
+      <c r="G34">
+        <v>-5.18467124553057e-05</v>
+      </c>
+      <c r="H34">
+        <v>0.06050751593880908</v>
+      </c>
+      <c r="I34">
+        <v>0.02448629566989196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001072931253845459</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.007705570327171348</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.02832226966003625</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.002767429833853479</v>
+      </c>
+      <c r="F35">
+        <v>-0.01550334282673355</v>
+      </c>
+      <c r="G35">
+        <v>-0.0120783463247593</v>
+      </c>
+      <c r="H35">
+        <v>0.03634860985059269</v>
+      </c>
+      <c r="I35">
+        <v>0.03748012149987685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007318280152684482</v>
+        <v>0.01170839298903978</v>
       </c>
       <c r="C36">
-        <v>-0.00557516052017255</v>
+        <v>0.01821311608160238</v>
       </c>
       <c r="D36">
-        <v>0.08674733795833739</v>
+        <v>-0.07330746857601608</v>
       </c>
       <c r="E36">
-        <v>0.04231355308901752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02511995284679272</v>
+      </c>
+      <c r="F36">
+        <v>-0.04850389353980315</v>
+      </c>
+      <c r="G36">
+        <v>-0.01550368620581777</v>
+      </c>
+      <c r="H36">
+        <v>0.06377951666585473</v>
+      </c>
+      <c r="I36">
+        <v>-0.007925651373924314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005823254412302904</v>
+        <v>0.01462435007533648</v>
       </c>
       <c r="C38">
-        <v>-0.005762113786931917</v>
+        <v>0.01808060110024159</v>
       </c>
       <c r="D38">
-        <v>0.08533850806432668</v>
+        <v>-0.08773791598207531</v>
       </c>
       <c r="E38">
-        <v>0.01046851111533198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001442265300028467</v>
+      </c>
+      <c r="F38">
+        <v>-0.001394581173603804</v>
+      </c>
+      <c r="G38">
+        <v>-0.03213631686641909</v>
+      </c>
+      <c r="H38">
+        <v>0.06028786955550956</v>
+      </c>
+      <c r="I38">
+        <v>0.01175258312201373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01674829338348164</v>
+        <v>0.003274078728069904</v>
       </c>
       <c r="C39">
-        <v>-0.05608986548177083</v>
+        <v>0.07348011835011728</v>
       </c>
       <c r="D39">
-        <v>0.1141946808035707</v>
+        <v>-0.09829436455380051</v>
       </c>
       <c r="E39">
-        <v>-0.01905681676305251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0530806457815838</v>
+      </c>
+      <c r="F39">
+        <v>0.005090168385063308</v>
+      </c>
+      <c r="G39">
+        <v>-0.00250191109252143</v>
+      </c>
+      <c r="H39">
+        <v>0.1023308797028921</v>
+      </c>
+      <c r="I39">
+        <v>0.04594263666739763</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01109060435694836</v>
+        <v>0.0125512124818662</v>
       </c>
       <c r="C40">
-        <v>-0.01579542153091511</v>
+        <v>0.02736759977868441</v>
       </c>
       <c r="D40">
-        <v>0.1213730015333544</v>
+        <v>-0.09876764732529465</v>
       </c>
       <c r="E40">
-        <v>-0.02123859828957628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04762542898317215</v>
+      </c>
+      <c r="F40">
+        <v>0.02129574746862478</v>
+      </c>
+      <c r="G40">
+        <v>-0.06753324295414473</v>
+      </c>
+      <c r="H40">
+        <v>0.06921891767162569</v>
+      </c>
+      <c r="I40">
+        <v>-0.08442192803472703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01155814486286528</v>
+        <v>0.01671730414791843</v>
       </c>
       <c r="C41">
-        <v>-0.004782670781960017</v>
+        <v>0.01578314803903009</v>
       </c>
       <c r="D41">
-        <v>0.0500862202288707</v>
+        <v>-0.04332855408146635</v>
       </c>
       <c r="E41">
-        <v>0.0315084414670141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.008050475456291516</v>
+      </c>
+      <c r="F41">
+        <v>-0.02446362366180821</v>
+      </c>
+      <c r="G41">
+        <v>-0.01972532609986329</v>
+      </c>
+      <c r="H41">
+        <v>0.04087582245835991</v>
+      </c>
+      <c r="I41">
+        <v>0.01035022727919373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005277140837907336</v>
+        <v>0.01085929734771588</v>
       </c>
       <c r="C43">
-        <v>-0.00612514015140367</v>
+        <v>0.01432711401146521</v>
       </c>
       <c r="D43">
-        <v>0.06005327186080105</v>
+        <v>-0.05073180659849434</v>
       </c>
       <c r="E43">
-        <v>0.02072231511331298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008676434080618313</v>
+      </c>
+      <c r="F43">
+        <v>-0.02031145996965423</v>
+      </c>
+      <c r="G43">
+        <v>-0.02102754419192081</v>
+      </c>
+      <c r="H43">
+        <v>0.05669951403417864</v>
+      </c>
+      <c r="I43">
+        <v>0.02460161151429037</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.018099535321273</v>
+        <v>0.01225890758487557</v>
       </c>
       <c r="C44">
-        <v>-0.0224035291050479</v>
+        <v>0.04422361995724832</v>
       </c>
       <c r="D44">
-        <v>0.111030360903585</v>
+        <v>-0.1122829256679632</v>
       </c>
       <c r="E44">
-        <v>0.04627663961566918</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0382198183484861</v>
+      </c>
+      <c r="F44">
+        <v>-0.03558188101171982</v>
+      </c>
+      <c r="G44">
+        <v>-0.03347718534465668</v>
+      </c>
+      <c r="H44">
+        <v>0.04960817054876376</v>
+      </c>
+      <c r="I44">
+        <v>0.04600980725286864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006571123362476455</v>
+        <v>0.0001985892438562779</v>
       </c>
       <c r="C46">
-        <v>-0.02767094071110511</v>
+        <v>0.03894154324415453</v>
       </c>
       <c r="D46">
-        <v>0.09106287382051963</v>
+        <v>-0.07993599578747643</v>
       </c>
       <c r="E46">
-        <v>0.01749251893559737</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04073351624393379</v>
+      </c>
+      <c r="F46">
+        <v>-0.03283099217522567</v>
+      </c>
+      <c r="G46">
+        <v>-0.03176304592407294</v>
+      </c>
+      <c r="H46">
+        <v>0.1303058457423919</v>
+      </c>
+      <c r="I46">
+        <v>0.03450352550626282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08488623436421831</v>
+        <v>0.03683911588998573</v>
       </c>
       <c r="C47">
-        <v>-0.1046536344566399</v>
+        <v>0.127549476931331</v>
       </c>
       <c r="D47">
-        <v>0.05964099022676705</v>
+        <v>-0.02784744828387981</v>
       </c>
       <c r="E47">
-        <v>0.02784060342183477</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007711839698879583</v>
+      </c>
+      <c r="F47">
+        <v>0.003868605861082796</v>
+      </c>
+      <c r="G47">
+        <v>0.03099756211901969</v>
+      </c>
+      <c r="H47">
+        <v>0.06110325308972585</v>
+      </c>
+      <c r="I47">
+        <v>-0.0489831611197079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007857490473013389</v>
+        <v>0.012457633572726</v>
       </c>
       <c r="C48">
-        <v>-0.0157755112875249</v>
+        <v>0.02787987859834842</v>
       </c>
       <c r="D48">
-        <v>0.0938220249874249</v>
+        <v>-0.07710787338158577</v>
       </c>
       <c r="E48">
-        <v>0.0539884507774094</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01885270145653447</v>
+      </c>
+      <c r="F48">
+        <v>-0.06016358546596449</v>
+      </c>
+      <c r="G48">
+        <v>-0.03032253829435805</v>
+      </c>
+      <c r="H48">
+        <v>0.101948886301916</v>
+      </c>
+      <c r="I48">
+        <v>0.005069016784825778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03956730996654181</v>
+        <v>0.01582980881495124</v>
       </c>
       <c r="C50">
-        <v>-0.06074423638350828</v>
+        <v>0.0759766146225322</v>
       </c>
       <c r="D50">
-        <v>0.06821190628520922</v>
+        <v>-0.04939358034716915</v>
       </c>
       <c r="E50">
-        <v>0.008087659718803963</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01186063975051502</v>
+      </c>
+      <c r="F50">
+        <v>-0.01107950598542968</v>
+      </c>
+      <c r="G50">
+        <v>-0.02500791907413579</v>
+      </c>
+      <c r="H50">
+        <v>0.03243133401858682</v>
+      </c>
+      <c r="I50">
+        <v>-0.02143516485092501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0002203981040294096</v>
+        <v>-0.0001805207503712477</v>
       </c>
       <c r="C51">
-        <v>-0.002561299469714636</v>
+        <v>0.01385094547447971</v>
       </c>
       <c r="D51">
-        <v>0.05743231673929843</v>
+        <v>-0.05956685978772015</v>
       </c>
       <c r="E51">
-        <v>0.0004048058955817357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03841462264540373</v>
+      </c>
+      <c r="F51">
+        <v>-0.03613907678588118</v>
+      </c>
+      <c r="G51">
+        <v>-0.02996123437029649</v>
+      </c>
+      <c r="H51">
+        <v>0.0345993226252674</v>
+      </c>
+      <c r="I51">
+        <v>-0.0212390461379876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1103618725584908</v>
+        <v>0.0563588925573198</v>
       </c>
       <c r="C53">
-        <v>-0.1208117402660712</v>
+        <v>0.1553513498989198</v>
       </c>
       <c r="D53">
-        <v>0.0197174131927275</v>
+        <v>0.01688728071624434</v>
       </c>
       <c r="E53">
-        <v>0.06020490712979289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02862037198919209</v>
+      </c>
+      <c r="F53">
+        <v>-0.05019738893301353</v>
+      </c>
+      <c r="G53">
+        <v>-0.003190551318659781</v>
+      </c>
+      <c r="H53">
+        <v>0.001983304800687724</v>
+      </c>
+      <c r="I53">
+        <v>-0.01023616748346545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01425602999724028</v>
+        <v>0.0107644139802572</v>
       </c>
       <c r="C54">
-        <v>-0.02149136907922774</v>
+        <v>0.03854691679175534</v>
       </c>
       <c r="D54">
-        <v>0.09868123920075436</v>
+        <v>-0.08180883647004039</v>
       </c>
       <c r="E54">
-        <v>0.0008357246146478688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01537187662445027</v>
+      </c>
+      <c r="F54">
+        <v>-0.0001931793347633728</v>
+      </c>
+      <c r="G54">
+        <v>-0.03519151305035388</v>
+      </c>
+      <c r="H54">
+        <v>0.07872280683521996</v>
+      </c>
+      <c r="I54">
+        <v>0.03179723084732761</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09847644740990008</v>
+        <v>0.04358500823053137</v>
       </c>
       <c r="C55">
-        <v>-0.1016601799151817</v>
+        <v>0.1290101954232414</v>
       </c>
       <c r="D55">
-        <v>0.00869119031992235</v>
+        <v>0.02950595247976382</v>
       </c>
       <c r="E55">
-        <v>0.01304800671456276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004270677655209725</v>
+      </c>
+      <c r="F55">
+        <v>-0.01528744637430265</v>
+      </c>
+      <c r="G55">
+        <v>-0.01350417774354496</v>
+      </c>
+      <c r="H55">
+        <v>0.005097850451562819</v>
+      </c>
+      <c r="I55">
+        <v>-0.03152773503232197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1366844370853093</v>
+        <v>0.05850587554718128</v>
       </c>
       <c r="C56">
-        <v>-0.1364668150827575</v>
+        <v>0.1867442582473891</v>
       </c>
       <c r="D56">
-        <v>0.002205504713583036</v>
+        <v>0.03029581163223643</v>
       </c>
       <c r="E56">
-        <v>0.01400588328429551</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03247645895542447</v>
+      </c>
+      <c r="F56">
+        <v>-0.01895895808348514</v>
+      </c>
+      <c r="G56">
+        <v>-0.05944334836004345</v>
+      </c>
+      <c r="H56">
+        <v>-0.01020730106960085</v>
+      </c>
+      <c r="I56">
+        <v>-0.03503180521088351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.00560834067424545</v>
+        <v>0.006561181788196619</v>
       </c>
       <c r="C58">
-        <v>-0.01217516960232067</v>
+        <v>0.05022148948696857</v>
       </c>
       <c r="D58">
-        <v>0.2113625593821434</v>
+        <v>-0.2741282637572667</v>
       </c>
       <c r="E58">
-        <v>0.07920721659572112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.007434571977398123</v>
+      </c>
+      <c r="F58">
+        <v>-0.1110607159165584</v>
+      </c>
+      <c r="G58">
+        <v>-0.1138270883124661</v>
+      </c>
+      <c r="H58">
+        <v>-0.1131148957705904</v>
+      </c>
+      <c r="I58">
+        <v>0.06793625244166146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1740096437197591</v>
+        <v>0.2527757110931605</v>
       </c>
       <c r="C59">
-        <v>0.1547581757882819</v>
+        <v>-0.06690393895543853</v>
       </c>
       <c r="D59">
-        <v>0.04561902381913926</v>
+        <v>-0.05798893192217144</v>
       </c>
       <c r="E59">
-        <v>0.03581595765089835</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02342524026050174</v>
+      </c>
+      <c r="F59">
+        <v>-0.02475244883806502</v>
+      </c>
+      <c r="G59">
+        <v>-0.01047188450154102</v>
+      </c>
+      <c r="H59">
+        <v>-0.004007664778375962</v>
+      </c>
+      <c r="I59">
+        <v>-0.071146478044919</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1934267479235616</v>
+        <v>0.1514232199351466</v>
       </c>
       <c r="C60">
-        <v>-0.09465673703314743</v>
+        <v>0.1712904614312026</v>
       </c>
       <c r="D60">
-        <v>0.1918162237400326</v>
+        <v>-0.09087466024232387</v>
       </c>
       <c r="E60">
-        <v>-0.1723887882576134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1686438474988207</v>
+      </c>
+      <c r="F60">
+        <v>0.2238373853998676</v>
+      </c>
+      <c r="G60">
+        <v>0.2576439716929744</v>
+      </c>
+      <c r="H60">
+        <v>-0.179830292684603</v>
+      </c>
+      <c r="I60">
+        <v>-0.09109192263521963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02786863707319064</v>
+        <v>0.01106378008806727</v>
       </c>
       <c r="C61">
-        <v>-0.05223157084199843</v>
+        <v>0.07111095915726631</v>
       </c>
       <c r="D61">
-        <v>0.1002372621777431</v>
+        <v>-0.07829000112747657</v>
       </c>
       <c r="E61">
-        <v>-0.00865747972934479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03632175070689465</v>
+      </c>
+      <c r="F61">
+        <v>0.01560591000564143</v>
+      </c>
+      <c r="G61">
+        <v>0.01217274499169103</v>
+      </c>
+      <c r="H61">
+        <v>0.09074747045049278</v>
+      </c>
+      <c r="I61">
+        <v>0.02219051422635905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.008410783438429778</v>
+        <v>0.00883823389546351</v>
       </c>
       <c r="C63">
-        <v>-0.02561734509441222</v>
+        <v>0.03443254449649836</v>
       </c>
       <c r="D63">
-        <v>0.09406466617885108</v>
+        <v>-0.06750766978589606</v>
       </c>
       <c r="E63">
-        <v>0.013162988279182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05441241159802163</v>
+      </c>
+      <c r="F63">
+        <v>-0.02818179720767581</v>
+      </c>
+      <c r="G63">
+        <v>-0.02043018625478808</v>
+      </c>
+      <c r="H63">
+        <v>0.06643250976849144</v>
+      </c>
+      <c r="I63">
+        <v>0.02906769610728693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05923742731282899</v>
+        <v>0.02001722296363245</v>
       </c>
       <c r="C64">
-        <v>-0.08025343856661077</v>
+        <v>0.105314766256275</v>
       </c>
       <c r="D64">
-        <v>0.03799435626630024</v>
+        <v>-0.02512860243719819</v>
       </c>
       <c r="E64">
-        <v>0.01403344017726264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02814977417389434</v>
+      </c>
+      <c r="F64">
+        <v>-0.01777143318737833</v>
+      </c>
+      <c r="G64">
+        <v>0.04093297867702123</v>
+      </c>
+      <c r="H64">
+        <v>0.1108120564631601</v>
+      </c>
+      <c r="I64">
+        <v>0.04943217201996526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02627835308015971</v>
+        <v>0.02167727603226303</v>
       </c>
       <c r="C65">
-        <v>-0.01625847511189763</v>
+        <v>0.0424470147012127</v>
       </c>
       <c r="D65">
-        <v>0.1200316072773293</v>
+        <v>-0.1183079197965698</v>
       </c>
       <c r="E65">
-        <v>0.00307309723474671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04118650373898158</v>
+      </c>
+      <c r="F65">
+        <v>0.008473534348694045</v>
+      </c>
+      <c r="G65">
+        <v>0.02331273252070241</v>
+      </c>
+      <c r="H65">
+        <v>0.0335654438662351</v>
+      </c>
+      <c r="I65">
+        <v>0.06288652531816383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02094250089400629</v>
+        <v>0.001133672623961728</v>
       </c>
       <c r="C66">
-        <v>-0.06359585571598682</v>
+        <v>0.09034587336006945</v>
       </c>
       <c r="D66">
-        <v>0.1200848520332488</v>
+        <v>-0.1237230708716066</v>
       </c>
       <c r="E66">
-        <v>-0.02076058443712699</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03927289762710503</v>
+      </c>
+      <c r="F66">
+        <v>0.01120471607649598</v>
+      </c>
+      <c r="G66">
+        <v>-0.01664089741478725</v>
+      </c>
+      <c r="H66">
+        <v>0.05945427939734074</v>
+      </c>
+      <c r="I66">
+        <v>0.03827730817420918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02559030165338635</v>
+        <v>0.02497933552249844</v>
       </c>
       <c r="C67">
-        <v>-0.01814508042391238</v>
+        <v>0.03017583938149784</v>
       </c>
       <c r="D67">
-        <v>0.0399622977152435</v>
+        <v>-0.03910783831147235</v>
       </c>
       <c r="E67">
-        <v>-0.01533611748293268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00895785403093521</v>
+      </c>
+      <c r="F67">
+        <v>0.02800508836273019</v>
+      </c>
+      <c r="G67">
+        <v>-0.01655021692499343</v>
+      </c>
+      <c r="H67">
+        <v>0.06377536301893087</v>
+      </c>
+      <c r="I67">
+        <v>0.01392651055649931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1990094005744335</v>
+        <v>0.2729154721741721</v>
       </c>
       <c r="C68">
-        <v>0.1644579654873993</v>
+        <v>-0.07019522379071602</v>
       </c>
       <c r="D68">
-        <v>0.03493102537186855</v>
+        <v>-0.02961737449526403</v>
       </c>
       <c r="E68">
-        <v>0.008030579431765985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.004551575577978566</v>
+      </c>
+      <c r="F68">
+        <v>-0.02727251861282248</v>
+      </c>
+      <c r="G68">
+        <v>-0.05964420554723772</v>
+      </c>
+      <c r="H68">
+        <v>-0.06354005946609147</v>
+      </c>
+      <c r="I68">
+        <v>-0.05202496792911827</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06243620869856183</v>
+        <v>0.02153155753745471</v>
       </c>
       <c r="C69">
-        <v>-0.1144727304799143</v>
+        <v>0.1189940989612553</v>
       </c>
       <c r="D69">
-        <v>0.08303638335152966</v>
+        <v>-0.03394064248253706</v>
       </c>
       <c r="E69">
-        <v>0.0151244307640008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008195729505198869</v>
+      </c>
+      <c r="F69">
+        <v>0.006574930244293217</v>
+      </c>
+      <c r="G69">
+        <v>0.01375220359373482</v>
+      </c>
+      <c r="H69">
+        <v>0.04728049204726303</v>
+      </c>
+      <c r="I69">
+        <v>-0.02771714081577234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2062517548716458</v>
+        <v>0.2741260223003604</v>
       </c>
       <c r="C71">
-        <v>0.1881897173093348</v>
+        <v>-0.0856159223610919</v>
       </c>
       <c r="D71">
-        <v>0.02382818143888521</v>
+        <v>-0.01611882036344892</v>
       </c>
       <c r="E71">
-        <v>0.01516932828227056</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.002110411230329067</v>
+      </c>
+      <c r="F71">
+        <v>-0.02136339576160529</v>
+      </c>
+      <c r="G71">
+        <v>-0.0403184994966399</v>
+      </c>
+      <c r="H71">
+        <v>0.0126093309085982</v>
+      </c>
+      <c r="I71">
+        <v>-0.05526404500832559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1086498128722972</v>
+        <v>0.0563437127806866</v>
       </c>
       <c r="C72">
-        <v>-0.07036473148336816</v>
+        <v>0.1227211087397995</v>
       </c>
       <c r="D72">
-        <v>0.104837777395979</v>
+        <v>-0.05742806832394534</v>
       </c>
       <c r="E72">
-        <v>-0.05094659106867116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07038729604278547</v>
+      </c>
+      <c r="F72">
+        <v>0.02955687050705249</v>
+      </c>
+      <c r="G72">
+        <v>0.0241893688533133</v>
+      </c>
+      <c r="H72">
+        <v>0.05074230145013858</v>
+      </c>
+      <c r="I72">
+        <v>0.05498369035984702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1785147158570704</v>
+        <v>0.1417895417628971</v>
       </c>
       <c r="C73">
-        <v>-0.06081962141760389</v>
+        <v>0.1462023243204124</v>
       </c>
       <c r="D73">
-        <v>0.2652948717861282</v>
+        <v>-0.1078189014285491</v>
       </c>
       <c r="E73">
-        <v>-0.2654971988149901</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3022579831655399</v>
+      </c>
+      <c r="F73">
+        <v>0.3260493807640673</v>
+      </c>
+      <c r="G73">
+        <v>0.4286978917040171</v>
+      </c>
+      <c r="H73">
+        <v>-0.08233006583851057</v>
+      </c>
+      <c r="I73">
+        <v>-0.03666701547599732</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1124451195928859</v>
+        <v>0.05162699400339717</v>
       </c>
       <c r="C74">
-        <v>-0.1124612337959916</v>
+        <v>0.1475781788725993</v>
       </c>
       <c r="D74">
-        <v>-0.01778848134290256</v>
+        <v>0.04075986795670525</v>
       </c>
       <c r="E74">
-        <v>0.04161765967370955</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01160325825817644</v>
+      </c>
+      <c r="F74">
+        <v>-0.03659984728233113</v>
+      </c>
+      <c r="G74">
+        <v>0.002805083755773178</v>
+      </c>
+      <c r="H74">
+        <v>-0.01785402345938537</v>
+      </c>
+      <c r="I74">
+        <v>-0.04438560952650193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2410349830776091</v>
+        <v>0.1131127775583729</v>
       </c>
       <c r="C75">
-        <v>-0.1900717401853071</v>
+        <v>0.2677312773898139</v>
       </c>
       <c r="D75">
-        <v>-0.106553626999453</v>
+        <v>0.1345949202063564</v>
       </c>
       <c r="E75">
-        <v>-0.0188286472049204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08790682603778216</v>
+      </c>
+      <c r="F75">
+        <v>0.0289980988175399</v>
+      </c>
+      <c r="G75">
+        <v>-0.09860871599330019</v>
+      </c>
+      <c r="H75">
+        <v>-0.0124038814926354</v>
+      </c>
+      <c r="I75">
+        <v>-0.02024138877896204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.143517071527206</v>
+        <v>0.06417269440860315</v>
       </c>
       <c r="C76">
-        <v>-0.1345493958458614</v>
+        <v>0.1821400686767171</v>
       </c>
       <c r="D76">
-        <v>0.01792982561341431</v>
+        <v>0.035947386857391</v>
       </c>
       <c r="E76">
-        <v>0.01103467790127441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02274995690324343</v>
+      </c>
+      <c r="F76">
+        <v>-0.004455916656577657</v>
+      </c>
+      <c r="G76">
+        <v>-0.04460415282137115</v>
+      </c>
+      <c r="H76">
+        <v>0.02171587812384014</v>
+      </c>
+      <c r="I76">
+        <v>-0.01703995267670823</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02236281330275207</v>
+        <v>0.0005062481391287856</v>
       </c>
       <c r="C77">
-        <v>-0.06906339398329168</v>
+        <v>0.1020144554199192</v>
       </c>
       <c r="D77">
-        <v>0.02840605767023664</v>
+        <v>-0.3029402984674184</v>
       </c>
       <c r="E77">
-        <v>0.2314440212904633</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8394268073083437</v>
+      </c>
+      <c r="F77">
+        <v>0.2419232379572671</v>
+      </c>
+      <c r="G77">
+        <v>0.2378292900010873</v>
+      </c>
+      <c r="H77">
+        <v>-0.112060881318158</v>
+      </c>
+      <c r="I77">
+        <v>-0.01374931789593951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02888527543449274</v>
+        <v>0.0168417904683758</v>
       </c>
       <c r="C78">
-        <v>-0.06448940716242166</v>
+        <v>0.08655629659036257</v>
       </c>
       <c r="D78">
-        <v>0.1515556809451011</v>
+        <v>-0.1260952474729523</v>
       </c>
       <c r="E78">
-        <v>0.04503809985300191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06574462899558468</v>
+      </c>
+      <c r="F78">
+        <v>-0.04756893700257273</v>
+      </c>
+      <c r="G78">
+        <v>-0.03496269396354479</v>
+      </c>
+      <c r="H78">
+        <v>0.01515768759865908</v>
+      </c>
+      <c r="I78">
+        <v>-0.1299802265028023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09910635351778749</v>
+        <v>0.03641601375190369</v>
       </c>
       <c r="C79">
-        <v>-0.1672011229667879</v>
+        <v>0.1874451392208812</v>
       </c>
       <c r="D79">
-        <v>-0.08894951520730987</v>
+        <v>0.07128335150154511</v>
       </c>
       <c r="E79">
-        <v>0.7972919732482979</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05637950482577351</v>
+      </c>
+      <c r="F79">
+        <v>-0.7690022017415964</v>
+      </c>
+      <c r="G79">
+        <v>0.4792588772891999</v>
+      </c>
+      <c r="H79">
+        <v>-0.198101866392584</v>
+      </c>
+      <c r="I79">
+        <v>0.06067290916300012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.006747304450332496</v>
+        <v>0.005303390982770755</v>
       </c>
       <c r="C80">
-        <v>-0.04498443807697814</v>
+        <v>0.04492756365940829</v>
       </c>
       <c r="D80">
-        <v>0.04906173541240554</v>
+        <v>-0.04220599893314493</v>
       </c>
       <c r="E80">
-        <v>-0.006963270470297965</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04182446505534771</v>
+      </c>
+      <c r="F80">
+        <v>-0.008026518751788295</v>
+      </c>
+      <c r="G80">
+        <v>-0.02471230400926932</v>
+      </c>
+      <c r="H80">
+        <v>0.02167698233277019</v>
+      </c>
+      <c r="I80">
+        <v>-0.07124932537355311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1231444576138105</v>
+        <v>0.045530674015197</v>
       </c>
       <c r="C81">
-        <v>-0.1295648625059284</v>
+        <v>0.1655828765375674</v>
       </c>
       <c r="D81">
-        <v>-0.07307943294919424</v>
+        <v>0.08248421856916262</v>
       </c>
       <c r="E81">
-        <v>0.06543034830623665</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05099662723273884</v>
+      </c>
+      <c r="F81">
+        <v>-0.06158216733930365</v>
+      </c>
+      <c r="G81">
+        <v>-0.05970818833754071</v>
+      </c>
+      <c r="H81">
+        <v>0.05805391546910744</v>
+      </c>
+      <c r="I81">
+        <v>-0.0454110122102164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2616574826374304</v>
+        <v>0.09602551205167793</v>
       </c>
       <c r="C82">
-        <v>-0.2891710356609982</v>
+        <v>0.3276030940674529</v>
       </c>
       <c r="D82">
-        <v>-0.2054330307329737</v>
+        <v>0.2330429937088439</v>
       </c>
       <c r="E82">
-        <v>-0.1323933027370102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05328681361984679</v>
+      </c>
+      <c r="F82">
+        <v>0.1031785748527698</v>
+      </c>
+      <c r="G82">
+        <v>-0.1174618083454538</v>
+      </c>
+      <c r="H82">
+        <v>0.09291343894939985</v>
+      </c>
+      <c r="I82">
+        <v>-0.02464866915007598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.005193852485464304</v>
+        <v>-0.01621654104160872</v>
       </c>
       <c r="C83">
-        <v>-0.05175411460204067</v>
+        <v>0.02762267878506327</v>
       </c>
       <c r="D83">
-        <v>0.01202612781879001</v>
+        <v>-0.02552719178256168</v>
       </c>
       <c r="E83">
-        <v>0.05795745440327447</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07641354993653815</v>
+      </c>
+      <c r="F83">
+        <v>-0.06918397953154869</v>
+      </c>
+      <c r="G83">
+        <v>-0.08666157179354869</v>
+      </c>
+      <c r="H83">
+        <v>0.03683657843286958</v>
+      </c>
+      <c r="I83">
+        <v>-0.7939640915209611</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0007040895524942547</v>
+        <v>-0.001296580724523533</v>
       </c>
       <c r="C84">
-        <v>0.001646888054048868</v>
+        <v>0.01906626342935124</v>
       </c>
       <c r="D84">
-        <v>0.004694491013879621</v>
+        <v>-0.04796751139787157</v>
       </c>
       <c r="E84">
-        <v>0.0005454920367959547</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.000455501313153022</v>
+      </c>
+      <c r="F84">
+        <v>-0.02996981180418607</v>
+      </c>
+      <c r="G84">
+        <v>-0.05162612202435977</v>
+      </c>
+      <c r="H84">
+        <v>0.007627352105811086</v>
+      </c>
+      <c r="I84">
+        <v>0.0672180553232747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1455828958897683</v>
+        <v>0.0605415834441616</v>
       </c>
       <c r="C85">
-        <v>-0.1337520404829059</v>
+        <v>0.1832653076136968</v>
       </c>
       <c r="D85">
-        <v>-0.03819209776715043</v>
+        <v>0.08866983482103152</v>
       </c>
       <c r="E85">
-        <v>0.02767921087558621</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001430657824757522</v>
+      </c>
+      <c r="F85">
+        <v>-0.07307831701163746</v>
+      </c>
+      <c r="G85">
+        <v>-0.0197929887771851</v>
+      </c>
+      <c r="H85">
+        <v>-0.01089965884898838</v>
+      </c>
+      <c r="I85">
+        <v>-0.01777484646223514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01406914185837377</v>
+        <v>0.01172389061672509</v>
       </c>
       <c r="C86">
-        <v>-0.01254104605470529</v>
+        <v>0.03195603118339579</v>
       </c>
       <c r="D86">
-        <v>0.07635565681788657</v>
+        <v>-0.1017107512682929</v>
       </c>
       <c r="E86">
-        <v>0.04940368594650158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02408805868855629</v>
+      </c>
+      <c r="F86">
+        <v>0.0005650760558117878</v>
+      </c>
+      <c r="G86">
+        <v>0.007191980330364192</v>
+      </c>
+      <c r="H86">
+        <v>0.02348907653746982</v>
+      </c>
+      <c r="I86">
+        <v>-0.03937522624629575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0202981493440073</v>
+        <v>0.01182290426622119</v>
       </c>
       <c r="C87">
-        <v>-0.02332189828474688</v>
+        <v>0.05619521601130353</v>
       </c>
       <c r="D87">
-        <v>0.1328502768806871</v>
+        <v>-0.1462340835278856</v>
       </c>
       <c r="E87">
-        <v>0.05221960802558683</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.007439088069222191</v>
+      </c>
+      <c r="F87">
+        <v>-0.04766588885533747</v>
+      </c>
+      <c r="G87">
+        <v>-0.05996390217259514</v>
+      </c>
+      <c r="H87">
+        <v>0.0270088897989822</v>
+      </c>
+      <c r="I87">
+        <v>-0.03408443654828521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05690121684827201</v>
+        <v>0.03540795169711396</v>
       </c>
       <c r="C88">
-        <v>-0.04591111478233678</v>
+        <v>0.06851821684479661</v>
       </c>
       <c r="D88">
-        <v>0.02764744298857825</v>
+        <v>-0.00882220804595381</v>
       </c>
       <c r="E88">
-        <v>0.02915098940029523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02509867657813689</v>
+      </c>
+      <c r="F88">
+        <v>-0.01783366675742044</v>
+      </c>
+      <c r="G88">
+        <v>0.004118593603111052</v>
+      </c>
+      <c r="H88">
+        <v>0.02177264979131487</v>
+      </c>
+      <c r="I88">
+        <v>0.02504768185044066</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3069334283799645</v>
+        <v>0.4066210650832897</v>
       </c>
       <c r="C89">
-        <v>0.337815142744345</v>
+        <v>-0.1620198498190003</v>
       </c>
       <c r="D89">
-        <v>0.01594130454380981</v>
+        <v>-0.02851116288635146</v>
       </c>
       <c r="E89">
-        <v>0.09122370359797222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05231375946227682</v>
+      </c>
+      <c r="F89">
+        <v>-0.06320384227685814</v>
+      </c>
+      <c r="G89">
+        <v>-0.02960361146528121</v>
+      </c>
+      <c r="H89">
+        <v>0.1187301273095787</v>
+      </c>
+      <c r="I89">
+        <v>-0.03191124824949868</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2439354607394054</v>
+        <v>0.3160778795446345</v>
       </c>
       <c r="C90">
-        <v>0.2509883837519086</v>
+        <v>-0.1131997379727442</v>
       </c>
       <c r="D90">
-        <v>0.03528231340215614</v>
+        <v>-0.02990565760459811</v>
       </c>
       <c r="E90">
-        <v>-0.005860296595261814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01165831006940725</v>
+      </c>
+      <c r="F90">
+        <v>0.00676286874045562</v>
+      </c>
+      <c r="G90">
+        <v>-0.06509383895517502</v>
+      </c>
+      <c r="H90">
+        <v>-0.03149279377477808</v>
+      </c>
+      <c r="I90">
+        <v>-0.05213735424649635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1614177898735044</v>
+        <v>0.07100580025910753</v>
       </c>
       <c r="C91">
-        <v>-0.1821505988331509</v>
+        <v>0.2106614784338015</v>
       </c>
       <c r="D91">
-        <v>-0.09581714235567129</v>
+        <v>0.1088885794897383</v>
       </c>
       <c r="E91">
-        <v>0.09546698148205658</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06059943350535233</v>
+      </c>
+      <c r="F91">
+        <v>-0.07245831957321355</v>
+      </c>
+      <c r="G91">
+        <v>-0.005887978042914317</v>
+      </c>
+      <c r="H91">
+        <v>-0.0001129160431088483</v>
+      </c>
+      <c r="I91">
+        <v>-0.05449320077855822</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2326317650192692</v>
+        <v>0.33618805782229</v>
       </c>
       <c r="C92">
-        <v>0.2689635708227275</v>
+        <v>-0.1457520522989751</v>
       </c>
       <c r="D92">
-        <v>-0.05705847901978926</v>
+        <v>0.006699103415613365</v>
       </c>
       <c r="E92">
-        <v>0.05360272985291782</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06871285994342109</v>
+      </c>
+      <c r="F92">
+        <v>-0.02853493841666397</v>
+      </c>
+      <c r="G92">
+        <v>-0.03028622695371036</v>
+      </c>
+      <c r="H92">
+        <v>0.02277207012593257</v>
+      </c>
+      <c r="I92">
+        <v>0.2635610998256062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2707722559953186</v>
+        <v>0.334279791369699</v>
       </c>
       <c r="C93">
-        <v>0.2613501138495444</v>
+        <v>-0.1174831506227604</v>
       </c>
       <c r="D93">
-        <v>0.01458775538402113</v>
+        <v>0.01730736263458009</v>
       </c>
       <c r="E93">
-        <v>0.003065796481786775</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02470773094050142</v>
+      </c>
+      <c r="F93">
+        <v>-0.0086288093785947</v>
+      </c>
+      <c r="G93">
+        <v>0.01685166078938577</v>
+      </c>
+      <c r="H93">
+        <v>0.0008114483378853131</v>
+      </c>
+      <c r="I93">
+        <v>-0.0006954940116047602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3061271825398828</v>
+        <v>0.1349777709737375</v>
       </c>
       <c r="C94">
-        <v>-0.2624451230673732</v>
+        <v>0.3580151344491992</v>
       </c>
       <c r="D94">
-        <v>-0.3566362789768239</v>
+        <v>0.3477278948691987</v>
       </c>
       <c r="E94">
-        <v>-0.2004216047665842</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05529758464367878</v>
+      </c>
+      <c r="F94">
+        <v>0.09135906057922584</v>
+      </c>
+      <c r="G94">
+        <v>-0.2967174466663869</v>
+      </c>
+      <c r="H94">
+        <v>-0.09407826499237533</v>
+      </c>
+      <c r="I94">
+        <v>0.1612903036602885</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01574195938360648</v>
+        <v>0.01914255934852568</v>
       </c>
       <c r="C95">
-        <v>-0.03760421823230482</v>
+        <v>0.06302247606377266</v>
       </c>
       <c r="D95">
-        <v>0.02864276176150941</v>
+        <v>-0.1054779049399675</v>
       </c>
       <c r="E95">
-        <v>0.08603169452848988</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1581813833446469</v>
+      </c>
+      <c r="F95">
+        <v>0.02517439493470186</v>
+      </c>
+      <c r="G95">
+        <v>0.03557157747375279</v>
+      </c>
+      <c r="H95">
+        <v>0.4161894107924623</v>
+      </c>
+      <c r="I95">
+        <v>0.2731379258411514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001253342775968966</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0005738719827674767</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.001046259591463145</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003314218720118684</v>
+      </c>
+      <c r="F97">
+        <v>9.484700688818811e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004360979807641738</v>
+      </c>
+      <c r="H97">
+        <v>0.003402895549769174</v>
+      </c>
+      <c r="I97">
+        <v>0.004128122949177446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1476782645881517</v>
+        <v>0.1149768220065695</v>
       </c>
       <c r="C98">
-        <v>-0.07878363068867188</v>
+        <v>0.1473135136498203</v>
       </c>
       <c r="D98">
-        <v>0.1470846573000607</v>
+        <v>-0.07015558847115413</v>
       </c>
       <c r="E98">
-        <v>-0.1999706683825118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2057716800994708</v>
+      </c>
+      <c r="F98">
+        <v>0.2411168158616935</v>
+      </c>
+      <c r="G98">
+        <v>0.2944115759460585</v>
+      </c>
+      <c r="H98">
+        <v>-0.1286002595730614</v>
+      </c>
+      <c r="I98">
+        <v>-0.02332425703266411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.000482963351663584</v>
+        <v>0.0002535943279856035</v>
       </c>
       <c r="C101">
-        <v>-0.02063118598899461</v>
+        <v>0.03104153160319409</v>
       </c>
       <c r="D101">
-        <v>0.09783653640310379</v>
+        <v>-0.09937618209785569</v>
       </c>
       <c r="E101">
-        <v>0.01448621169053003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05450348709063057</v>
+      </c>
+      <c r="F101">
+        <v>-0.03713149566051239</v>
+      </c>
+      <c r="G101">
+        <v>-0.02161754739871818</v>
+      </c>
+      <c r="H101">
+        <v>0.1289378313298196</v>
+      </c>
+      <c r="I101">
+        <v>0.01045536678997152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1096847604402039</v>
+        <v>0.0305902219658617</v>
       </c>
       <c r="C102">
-        <v>-0.1536286185025761</v>
+        <v>0.1506749979370835</v>
       </c>
       <c r="D102">
-        <v>-0.06833085653232919</v>
+        <v>0.0953536365493987</v>
       </c>
       <c r="E102">
-        <v>-0.04709337790469419</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03360884425416614</v>
+      </c>
+      <c r="F102">
+        <v>0.05916724015579769</v>
+      </c>
+      <c r="G102">
+        <v>-0.008032997199800055</v>
+      </c>
+      <c r="H102">
+        <v>0.05394715739750575</v>
+      </c>
+      <c r="I102">
+        <v>-0.02317263908216272</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
